--- a/doc/doc_design/KeyMapDesign.xlsx
+++ b/doc/doc_design/KeyMapDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyHandheld_Rock\doc\doc_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyKeyBoardMini\doc\doc_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4363258-8CA7-4965-BE47-CEDBFA3B9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA84096-E152-4D27-90B4-62760C06E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,13 +1004,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1020,13 +1020,13 @@
       <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
